--- a/table_TongQuan.xlsx
+++ b/table_TongQuan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Khách hàng</t>
   </si>
@@ -134,13 +134,7 @@
     <t>Đối tượng sử dụng Phần mềm được sử dụng bời người quản trị, người quản lý và các nhân viên.</t>
   </si>
   <si>
-    <t>16/03/2017</t>
-  </si>
-  <si>
-    <t>24/05/2017</t>
-  </si>
-  <si>
-    <t>2 tháng 8 ngày</t>
+    <t>1 tháng 25 ngày</t>
   </si>
 </sst>
 </file>
@@ -229,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -251,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,8 +583,8 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
+      <c r="B5" s="8">
+        <v>42858</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -595,8 +592,8 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
+      <c r="B6" s="8">
+        <v>42830</v>
       </c>
       <c r="C6" s="4"/>
       <c r="E6" s="2"/>
@@ -732,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4"/>
     </row>
@@ -752,6 +749,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B10:C10"/>
@@ -765,13 +769,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
